--- a/Code/Results/Cases/Case_5_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_125/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.48659471187824</v>
+        <v>1.353609635285011</v>
       </c>
       <c r="C2">
-        <v>0.5638222565886508</v>
+        <v>0.2539931740461157</v>
       </c>
       <c r="D2">
-        <v>0.05345118693897888</v>
+        <v>0.0262438978229298</v>
       </c>
       <c r="E2">
-        <v>0.03090658172371175</v>
+        <v>0.08598567600448526</v>
       </c>
       <c r="F2">
-        <v>0.4424102281892388</v>
+        <v>0.6471769034445316</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.1930230276448697</v>
+        <v>0.5584063081531312</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3389081660075846</v>
+        <v>0.2280261146700582</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.207163823792996</v>
+        <v>2.192062247822491</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.032519539530142</v>
+        <v>1.21133559458292</v>
       </c>
       <c r="C3">
-        <v>0.5053003070604802</v>
+        <v>0.2344638234132219</v>
       </c>
       <c r="D3">
-        <v>0.04798191167020605</v>
+        <v>0.02439403277229957</v>
       </c>
       <c r="E3">
-        <v>0.03172467582138427</v>
+        <v>0.08708918564973622</v>
       </c>
       <c r="F3">
-        <v>0.411979532149445</v>
+        <v>0.6477343778755795</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.2031239414011345</v>
+        <v>0.5688561124922735</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.297277729855054</v>
+        <v>0.2173551475487017</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.155555011906017</v>
+        <v>2.208821801407936</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.754069101210234</v>
+        <v>1.123850794926113</v>
       </c>
       <c r="C4">
-        <v>0.4693641167870055</v>
+        <v>0.2224143719674885</v>
       </c>
       <c r="D4">
-        <v>0.04462228099320953</v>
+        <v>0.02325291009247366</v>
       </c>
       <c r="E4">
-        <v>0.03231860097912875</v>
+        <v>0.08782035368923857</v>
       </c>
       <c r="F4">
-        <v>0.3946255151348694</v>
+        <v>0.6486532643167493</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.2103435523935033</v>
+        <v>0.5757531420222719</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2719825437450112</v>
+        <v>0.2109065978476821</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.128282497340294</v>
+        <v>2.221066464059561</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.640646955172372</v>
+        <v>1.088170069107662</v>
       </c>
       <c r="C5">
-        <v>0.4547147531352778</v>
+        <v>0.2174897871213091</v>
       </c>
       <c r="D5">
-        <v>0.04325247332697302</v>
+        <v>0.02278659348611711</v>
       </c>
       <c r="E5">
-        <v>0.03258285227394886</v>
+        <v>0.08813178773660102</v>
       </c>
       <c r="F5">
-        <v>0.3878670729170466</v>
+        <v>0.6491724050279259</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.2135291803567121</v>
+        <v>0.5786843933572214</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2617343409821586</v>
+        <v>0.208304865413723</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.118213182701268</v>
+        <v>2.226546576890811</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.621815110472255</v>
+        <v>1.082243568007698</v>
       </c>
       <c r="C6">
-        <v>0.4522818144119185</v>
+        <v>0.2166712077245165</v>
       </c>
       <c r="D6">
-        <v>0.04302496369133735</v>
+        <v>0.02270908442068986</v>
       </c>
       <c r="E6">
-        <v>0.03262805004108227</v>
+        <v>0.08818431501456825</v>
       </c>
       <c r="F6">
-        <v>0.3867631739891948</v>
+        <v>0.6492673378069966</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.2140725147290539</v>
+        <v>0.5791784054669655</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2600360456693096</v>
+        <v>0.2078744289044749</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.116602402104746</v>
+        <v>2.227486127075281</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.752539304606671</v>
+        <v>1.123369710529744</v>
       </c>
       <c r="C7">
-        <v>0.4691665762092043</v>
+        <v>0.2223480148875012</v>
       </c>
       <c r="D7">
-        <v>0.0446038107025899</v>
+        <v>0.02324662640356223</v>
       </c>
       <c r="E7">
-        <v>0.03232207583757418</v>
+        <v>0.08782449923339097</v>
       </c>
       <c r="F7">
-        <v>0.3945331263519094</v>
+        <v>0.6486596802007867</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.210385544463513</v>
+        <v>0.5757921857016051</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2718440999160379</v>
+        <v>0.2108714041644504</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.12814255463222</v>
+        <v>2.2211383869749</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.329930998669568</v>
+        <v>1.30458138523602</v>
       </c>
       <c r="C8">
-        <v>0.5436419638336929</v>
+        <v>0.2472717602742591</v>
       </c>
       <c r="D8">
-        <v>0.05156545902171672</v>
+        <v>0.02560718275345408</v>
       </c>
       <c r="E8">
-        <v>0.0311691444751192</v>
+        <v>0.08635503779960008</v>
       </c>
       <c r="F8">
-        <v>0.4316285082455664</v>
+        <v>0.6472492646653905</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.196287017500314</v>
+        <v>0.5619094616711777</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3244943474476827</v>
+        <v>0.2243253383031316</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.188411939291115</v>
+        <v>2.197434682087248</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.467011470685236</v>
+        <v>1.658842196621038</v>
       </c>
       <c r="C9">
-        <v>0.6898736508254331</v>
+        <v>0.2956717304811605</v>
       </c>
       <c r="D9">
-        <v>0.0652239782151085</v>
+        <v>0.0301929920555466</v>
       </c>
       <c r="E9">
-        <v>0.02967379009140814</v>
+        <v>0.08389892303556756</v>
       </c>
       <c r="F9">
-        <v>0.5159420443956861</v>
+        <v>0.6490731178696336</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.1773005039680093</v>
+        <v>0.5385112720372902</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4301992535608434</v>
+        <v>0.2515272424180779</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.344789612703181</v>
+        <v>2.16650863173686</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.30846128055714</v>
+        <v>1.918370087783728</v>
       </c>
       <c r="C10">
-        <v>0.7977562695087101</v>
+        <v>0.3309281768760854</v>
       </c>
       <c r="D10">
-        <v>0.07529200193992835</v>
+        <v>0.0335345537003704</v>
       </c>
       <c r="E10">
-        <v>0.02909862364596627</v>
+        <v>0.0823539801019777</v>
       </c>
       <c r="F10">
-        <v>0.5864440155764967</v>
+        <v>0.6532328283311841</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.1694970552204893</v>
+        <v>0.5236673728869761</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.509881900868649</v>
+        <v>0.2720110635473674</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.487645912669393</v>
+        <v>2.153343904008125</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.693327408536277</v>
+        <v>2.036258689377291</v>
       </c>
       <c r="C11">
-        <v>0.8470139334690714</v>
+        <v>0.3468989227060035</v>
       </c>
       <c r="D11">
-        <v>0.07988659319227764</v>
+        <v>0.03504847107449649</v>
       </c>
       <c r="E11">
-        <v>0.02896412505307921</v>
+        <v>0.0817075449238569</v>
       </c>
       <c r="F11">
-        <v>0.6207361006811425</v>
+        <v>0.6557422041477565</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.1674891734306421</v>
+        <v>0.5174271531601313</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5466967824775537</v>
+        <v>0.2814379857905749</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.559833197812026</v>
+        <v>2.149445806838713</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.839433628265795</v>
+        <v>2.080873502717623</v>
       </c>
       <c r="C12">
-        <v>0.8656999140570747</v>
+        <v>0.3529366265009628</v>
       </c>
       <c r="D12">
-        <v>0.08162918590168289</v>
+        <v>0.03562083679938866</v>
       </c>
       <c r="E12">
-        <v>0.02893269258935227</v>
+        <v>0.08147086642692081</v>
       </c>
       <c r="F12">
-        <v>0.6340734965009887</v>
+        <v>0.6567815295646113</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.1669694159470936</v>
+        <v>0.5151380844476279</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.560730435988205</v>
+        <v>0.2850233025403099</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.588306158404293</v>
+        <v>2.148271556569142</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.807949664431248</v>
+        <v>2.071266143728508</v>
       </c>
       <c r="C13">
-        <v>0.8616739585201572</v>
+        <v>0.3516367524358088</v>
       </c>
       <c r="D13">
-        <v>0.0812537558493247</v>
+        <v>0.03549760913795552</v>
       </c>
       <c r="E13">
-        <v>0.0289385746038171</v>
+        <v>0.08152147846115021</v>
       </c>
       <c r="F13">
-        <v>0.6311848625724252</v>
+        <v>0.6565537250154136</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.1670703390076547</v>
+        <v>0.5156277819944535</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5577037295170868</v>
+        <v>0.2842504504359766</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.582121713503682</v>
+        <v>2.148511006604309</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.705339927854084</v>
+        <v>2.039929732064138</v>
       </c>
       <c r="C14">
-        <v>0.8485505325619727</v>
+        <v>0.3473958520712586</v>
       </c>
       <c r="D14">
-        <v>0.08002989904592539</v>
+        <v>0.03509557861629276</v>
       </c>
       <c r="E14">
-        <v>0.02896114101672964</v>
+        <v>0.08168791061573089</v>
       </c>
       <c r="F14">
-        <v>0.6218261322115808</v>
+        <v>0.6558259228511645</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.1674414777793842</v>
+        <v>0.5172373460159214</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5478494155595399</v>
+        <v>0.2817326409034138</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.56215228289534</v>
+        <v>2.149343143416644</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.642538182905696</v>
+        <v>2.020731685120552</v>
       </c>
       <c r="C15">
-        <v>0.8405165968677863</v>
+        <v>0.3447968562188635</v>
       </c>
       <c r="D15">
-        <v>0.07928062518303136</v>
+        <v>0.03484920225260879</v>
       </c>
       <c r="E15">
-        <v>0.02897754053943302</v>
+        <v>0.08179091180541143</v>
       </c>
       <c r="F15">
-        <v>0.616140451118099</v>
+        <v>0.6553917338313084</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.167700726674699</v>
+        <v>0.5182328918215049</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5418257765115868</v>
+        <v>0.280192431760014</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.55007168290399</v>
+        <v>2.149892201169678</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.283356851230906</v>
+        <v>1.910662131981496</v>
       </c>
       <c r="C16">
-        <v>0.7945414063241856</v>
+        <v>0.3298830608551953</v>
       </c>
       <c r="D16">
-        <v>0.07499208015158132</v>
+        <v>0.0334354884657273</v>
       </c>
       <c r="E16">
-        <v>0.02911007392985709</v>
+        <v>0.08239736100694017</v>
       </c>
       <c r="F16">
-        <v>0.5842503428618926</v>
+        <v>0.6530812815730513</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.1696608817348526</v>
+        <v>0.5240855206254267</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5074883006591762</v>
+        <v>0.2713971722760959</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.48308172114244</v>
+        <v>2.153640828946067</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.063590156116106</v>
+        <v>1.843092332736603</v>
       </c>
       <c r="C17">
-        <v>0.7663884091079183</v>
+        <v>0.3207163678340521</v>
       </c>
       <c r="D17">
-        <v>0.07236535958249846</v>
+        <v>0.03256661488063628</v>
       </c>
       <c r="E17">
-        <v>0.02922478245619509</v>
+        <v>0.08278383987984128</v>
       </c>
       <c r="F17">
-        <v>0.565277787224673</v>
+        <v>0.6518221918253104</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.1712712676600603</v>
+        <v>0.5278073509043821</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4865762070668893</v>
+        <v>0.2660293499350104</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.443899819025546</v>
+        <v>2.156476834326838</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.937378287538365</v>
+        <v>1.804211924772517</v>
       </c>
       <c r="C18">
-        <v>0.750212154541714</v>
+        <v>0.315437587505528</v>
       </c>
       <c r="D18">
-        <v>0.07085587272517557</v>
+        <v>0.03206628248331356</v>
       </c>
       <c r="E18">
-        <v>0.02930264978999553</v>
+        <v>0.08301143743215533</v>
       </c>
       <c r="F18">
-        <v>0.5545721826870533</v>
+        <v>0.6511560611011404</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.1723414430965953</v>
+        <v>0.52999625607303</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4746007598252078</v>
+        <v>0.2629521599109097</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.4220346976592</v>
+        <v>2.158304732819545</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.894676201289997</v>
+        <v>1.791045001665054</v>
       </c>
       <c r="C19">
-        <v>0.7447377985558319</v>
+        <v>0.3136492049095807</v>
       </c>
       <c r="D19">
-        <v>0.070344997405833</v>
+        <v>0.03189678007411345</v>
       </c>
       <c r="E19">
-        <v>0.02933102080766581</v>
+        <v>0.08308940900076855</v>
       </c>
       <c r="F19">
-        <v>0.5509820376662589</v>
+        <v>0.6509404828864334</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.1727279540672946</v>
+        <v>0.5307456524000003</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4705547941962607</v>
+        <v>0.2619120375999984</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.414743865727701</v>
+        <v>2.158957373690896</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.086964353527492</v>
+        <v>1.850286930839275</v>
       </c>
       <c r="C20">
-        <v>0.7693835757826264</v>
+        <v>0.3216928367809544</v>
       </c>
       <c r="D20">
-        <v>0.07264483615563222</v>
+        <v>0.03265916815858816</v>
       </c>
       <c r="E20">
-        <v>0.02921133243437346</v>
+        <v>0.08274214943284264</v>
       </c>
       <c r="F20">
-        <v>0.5672758070114909</v>
+        <v>0.6519502121554979</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.1710848117627926</v>
+        <v>0.5274061643683225</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4887968096090276</v>
+        <v>0.2665997046955084</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.448000614119906</v>
+        <v>2.156154569603331</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.735468415822766</v>
+        <v>2.049134748026518</v>
       </c>
       <c r="C21">
-        <v>0.8524042408238302</v>
+        <v>0.3486417834200211</v>
       </c>
       <c r="D21">
-        <v>0.08038929636983738</v>
+        <v>0.03521369001480679</v>
       </c>
       <c r="E21">
-        <v>0.02895397338773087</v>
+        <v>0.08163880523209066</v>
       </c>
       <c r="F21">
-        <v>0.6245652011807437</v>
+        <v>0.6560372756996316</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.1673257783880935</v>
+        <v>0.5167625682729238</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5507412584504294</v>
+        <v>0.2824717613933245</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.56798607477441</v>
+        <v>2.149090521954264</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.161469951061406</v>
+        <v>2.178934613860577</v>
       </c>
       <c r="C22">
-        <v>0.9068601641140219</v>
+        <v>0.3661956155600876</v>
       </c>
       <c r="D22">
-        <v>0.08546693877816836</v>
+        <v>0.03687782855263322</v>
       </c>
       <c r="E22">
-        <v>0.0289000594252169</v>
+        <v>0.08096499492720532</v>
       </c>
       <c r="F22">
-        <v>0.6640742055301985</v>
+        <v>0.6592277865956362</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.1662811727927185</v>
+        <v>0.510237634935816</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5917714482056908</v>
+        <v>0.2929356403277836</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.653085162887891</v>
+        <v>2.146233889677177</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.933883446011578</v>
+        <v>2.109673261190096</v>
       </c>
       <c r="C23">
-        <v>0.8777754606909411</v>
+        <v>0.3568323061826106</v>
       </c>
       <c r="D23">
-        <v>0.08275520312434992</v>
+        <v>0.03599015070216893</v>
       </c>
       <c r="E23">
-        <v>0.02891795234183192</v>
+        <v>0.08132029094269555</v>
       </c>
       <c r="F23">
-        <v>0.6427869722752888</v>
+        <v>0.6574773157259557</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.1667028673650748</v>
+        <v>0.5136805567428553</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5698189906696456</v>
+        <v>0.2873426131604191</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.607019056095709</v>
+        <v>2.147597064933763</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.07639646349719</v>
+        <v>1.847034357619293</v>
       </c>
       <c r="C24">
-        <v>0.7680294325569719</v>
+        <v>0.321251402327789</v>
       </c>
       <c r="D24">
-        <v>0.07251848281926243</v>
+        <v>0.03261732732742217</v>
       </c>
       <c r="E24">
-        <v>0.02921737615238307</v>
+        <v>0.08276098084614603</v>
       </c>
       <c r="F24">
-        <v>0.5663718755952374</v>
+        <v>0.6518921543430238</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.1711686602854492</v>
+        <v>0.5275873876430595</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4877927290329183</v>
+        <v>0.2663418197601857</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.446144593143799</v>
+        <v>2.156299650556178</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.158580188895598</v>
+        <v>1.563130837478695</v>
       </c>
       <c r="C25">
-        <v>0.6502615604962614</v>
+        <v>0.2826305307332575</v>
       </c>
       <c r="D25">
-        <v>0.06152542617851253</v>
+        <v>0.02895717090301275</v>
       </c>
       <c r="E25">
-        <v>0.02999072291099836</v>
+        <v>0.08451779714560992</v>
       </c>
       <c r="F25">
-        <v>0.4917454422569065</v>
+        <v>0.6480861064781536</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.1814238618118758</v>
+        <v>0.5444300298351052</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4012884453731118</v>
+        <v>0.2440808119954312</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.297933147908793</v>
+        <v>2.173201939448944</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_125/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.353609635285011</v>
+        <v>3.486594711878297</v>
       </c>
       <c r="C2">
-        <v>0.2539931740461157</v>
+        <v>0.5638222565886508</v>
       </c>
       <c r="D2">
-        <v>0.0262438978229298</v>
+        <v>0.05345118693885098</v>
       </c>
       <c r="E2">
-        <v>0.08598567600448526</v>
+        <v>0.03090658172372063</v>
       </c>
       <c r="F2">
-        <v>0.6471769034445316</v>
+        <v>0.4424102281892388</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.5584063081531312</v>
+        <v>0.1930230276448839</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2280261146700582</v>
+        <v>0.3389081660075135</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.192062247822491</v>
+        <v>1.207163823792968</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.21133559458292</v>
+        <v>3.032519539530142</v>
       </c>
       <c r="C3">
-        <v>0.2344638234132219</v>
+        <v>0.5053003070603097</v>
       </c>
       <c r="D3">
-        <v>0.02439403277229957</v>
+        <v>0.04798191167008525</v>
       </c>
       <c r="E3">
-        <v>0.08708918564973622</v>
+        <v>0.0317246758213745</v>
       </c>
       <c r="F3">
-        <v>0.6477343778755795</v>
+        <v>0.4119795321494379</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.5688561124922735</v>
+        <v>0.2031239414011274</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2173551475487017</v>
+        <v>0.2972777298550398</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.208821801407936</v>
+        <v>1.155555011905975</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.123850794926113</v>
+        <v>2.754069101210177</v>
       </c>
       <c r="C4">
-        <v>0.2224143719674885</v>
+        <v>0.4693641167867213</v>
       </c>
       <c r="D4">
-        <v>0.02325291009247366</v>
+        <v>0.04462228099327348</v>
       </c>
       <c r="E4">
-        <v>0.08782035368923857</v>
+        <v>0.03231860097912609</v>
       </c>
       <c r="F4">
-        <v>0.6486532643167493</v>
+        <v>0.3946255151348694</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.5757531420222719</v>
+        <v>0.2103435523934998</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2109065978476821</v>
+        <v>0.2719825437449828</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.221066464059561</v>
+        <v>1.128282497340237</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.088170069107662</v>
+        <v>2.640646955172429</v>
       </c>
       <c r="C5">
-        <v>0.2174897871213091</v>
+        <v>0.4547147531349367</v>
       </c>
       <c r="D5">
-        <v>0.02278659348611711</v>
+        <v>0.04325247332688775</v>
       </c>
       <c r="E5">
-        <v>0.08813178773660102</v>
+        <v>0.03258285227396041</v>
       </c>
       <c r="F5">
-        <v>0.6491724050279259</v>
+        <v>0.3878670729170324</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.5786843933572214</v>
+        <v>0.2135291803567014</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.208304865413723</v>
+        <v>0.2617343409821586</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.226546576890811</v>
+        <v>1.118213182701254</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.082243568007698</v>
+        <v>2.621815110472255</v>
       </c>
       <c r="C6">
-        <v>0.2166712077245165</v>
+        <v>0.4522818144118617</v>
       </c>
       <c r="D6">
-        <v>0.02270908442068986</v>
+        <v>0.04302496369125919</v>
       </c>
       <c r="E6">
-        <v>0.08818431501456825</v>
+        <v>0.03262805004108227</v>
       </c>
       <c r="F6">
-        <v>0.6492673378069966</v>
+        <v>0.386763173989209</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.5791784054669655</v>
+        <v>0.2140725147290361</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2078744289044749</v>
+        <v>0.260036045669267</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.227486127075281</v>
+        <v>1.116602402104746</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.123369710529744</v>
+        <v>2.752539304606501</v>
       </c>
       <c r="C7">
-        <v>0.2223480148875012</v>
+        <v>0.4691665762092043</v>
       </c>
       <c r="D7">
-        <v>0.02324662640356223</v>
+        <v>0.04460381070262542</v>
       </c>
       <c r="E7">
-        <v>0.08782449923339097</v>
+        <v>0.03232207583755908</v>
       </c>
       <c r="F7">
-        <v>0.6486596802007867</v>
+        <v>0.3945331263519236</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.5757921857016051</v>
+        <v>0.2103855444635094</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2108714041644504</v>
+        <v>0.271844099915981</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.2211383869749</v>
+        <v>1.12814255463222</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.30458138523602</v>
+        <v>3.329930998669397</v>
       </c>
       <c r="C8">
-        <v>0.2472717602742591</v>
+        <v>0.5436419638336929</v>
       </c>
       <c r="D8">
-        <v>0.02560718275345408</v>
+        <v>0.05156545902198673</v>
       </c>
       <c r="E8">
-        <v>0.08635503779960008</v>
+        <v>0.03116914447513164</v>
       </c>
       <c r="F8">
-        <v>0.6472492646653905</v>
+        <v>0.4316285082455735</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.5619094616711777</v>
+        <v>0.1962870175002998</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2243253383031316</v>
+        <v>0.3244943474476401</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.197434682087248</v>
+        <v>1.188411939291171</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.658842196621038</v>
+        <v>4.467011470685293</v>
       </c>
       <c r="C9">
-        <v>0.2956717304811605</v>
+        <v>0.6898736508253194</v>
       </c>
       <c r="D9">
-        <v>0.0301929920555466</v>
+        <v>0.06522397821525772</v>
       </c>
       <c r="E9">
-        <v>0.08389892303556756</v>
+        <v>0.02967379009137794</v>
       </c>
       <c r="F9">
-        <v>0.6490731178696336</v>
+        <v>0.5159420443956932</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.5385112720372902</v>
+        <v>0.1773005039680058</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2515272424180779</v>
+        <v>0.430199253560815</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.16650863173686</v>
+        <v>1.344789612703181</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.918370087783728</v>
+        <v>5.308461280557196</v>
       </c>
       <c r="C10">
-        <v>0.3309281768760854</v>
+        <v>0.7977562695086817</v>
       </c>
       <c r="D10">
-        <v>0.0335345537003704</v>
+        <v>0.07529200193987862</v>
       </c>
       <c r="E10">
-        <v>0.0823539801019777</v>
+        <v>0.02909862364595028</v>
       </c>
       <c r="F10">
-        <v>0.6532328283311841</v>
+        <v>0.5864440155764967</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.5236673728869761</v>
+        <v>0.1694970552205071</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2720110635473674</v>
+        <v>0.5098819008685638</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.153343904008125</v>
+        <v>1.487645912669393</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.036258689377291</v>
+        <v>5.693327408536334</v>
       </c>
       <c r="C11">
-        <v>0.3468989227060035</v>
+        <v>0.8470139334689861</v>
       </c>
       <c r="D11">
-        <v>0.03504847107449649</v>
+        <v>0.07988659319243396</v>
       </c>
       <c r="E11">
-        <v>0.0817075449238569</v>
+        <v>0.0289641250530881</v>
       </c>
       <c r="F11">
-        <v>0.6557422041477565</v>
+        <v>0.6207361006811425</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.5174271531601313</v>
+        <v>0.1674891734306527</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2814379857905749</v>
+        <v>0.5466967824775963</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.149445806838713</v>
+        <v>1.559833197812054</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.080873502717623</v>
+        <v>5.839433628265851</v>
       </c>
       <c r="C12">
-        <v>0.3529366265009628</v>
+        <v>0.8656999140568473</v>
       </c>
       <c r="D12">
-        <v>0.03562083679938866</v>
+        <v>0.08162918590195289</v>
       </c>
       <c r="E12">
-        <v>0.08147086642692081</v>
+        <v>0.02893269258935227</v>
       </c>
       <c r="F12">
-        <v>0.6567815295646113</v>
+        <v>0.6340734965009887</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.5151380844476279</v>
+        <v>0.1669694159470936</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2850233025403099</v>
+        <v>0.5607304359882619</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.148271556569142</v>
+        <v>1.588306158404265</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.071266143728508</v>
+        <v>5.807949664431305</v>
       </c>
       <c r="C13">
-        <v>0.3516367524358088</v>
+        <v>0.8616739585201856</v>
       </c>
       <c r="D13">
-        <v>0.03549760913795552</v>
+        <v>0.08125375584933181</v>
       </c>
       <c r="E13">
-        <v>0.08152147846115021</v>
+        <v>0.02893857460381533</v>
       </c>
       <c r="F13">
-        <v>0.6565537250154136</v>
+        <v>0.6311848625724252</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.5156277819944535</v>
+        <v>0.1670703390076582</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2842504504359766</v>
+        <v>0.557703729517101</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.148511006604309</v>
+        <v>1.582121713503682</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.039929732064138</v>
+        <v>5.705339927854084</v>
       </c>
       <c r="C14">
-        <v>0.3473958520712586</v>
+        <v>0.8485505325617737</v>
       </c>
       <c r="D14">
-        <v>0.03509557861629276</v>
+        <v>0.08002989904592539</v>
       </c>
       <c r="E14">
-        <v>0.08168791061573089</v>
+        <v>0.02896114101673142</v>
       </c>
       <c r="F14">
-        <v>0.6558259228511645</v>
+        <v>0.6218261322115808</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.5172373460159214</v>
+        <v>0.1674414777793842</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2817326409034138</v>
+        <v>0.5478494155595541</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.149343143416644</v>
+        <v>1.562152282895426</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.020731685120552</v>
+        <v>5.642538182905355</v>
       </c>
       <c r="C15">
-        <v>0.3447968562188635</v>
+        <v>0.8405165968682411</v>
       </c>
       <c r="D15">
-        <v>0.03484920225260879</v>
+        <v>0.07928062518314505</v>
       </c>
       <c r="E15">
-        <v>0.08179091180541143</v>
+        <v>0.02897754053943125</v>
       </c>
       <c r="F15">
-        <v>0.6553917338313084</v>
+        <v>0.616140451118099</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.5182328918215049</v>
+        <v>0.1677007266747133</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.280192431760014</v>
+        <v>0.5418257765115442</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.149892201169678</v>
+        <v>1.550071682904047</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.910662131981496</v>
+        <v>5.283356851231019</v>
       </c>
       <c r="C16">
-        <v>0.3298830608551953</v>
+        <v>0.7945414063242424</v>
       </c>
       <c r="D16">
-        <v>0.0334354884657273</v>
+        <v>0.0749920801516808</v>
       </c>
       <c r="E16">
-        <v>0.08239736100694017</v>
+        <v>0.02911007392986953</v>
       </c>
       <c r="F16">
-        <v>0.6530812815730513</v>
+        <v>0.5842503428618926</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.5240855206254267</v>
+        <v>0.1696608817348704</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2713971722760959</v>
+        <v>0.5074883006593325</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.153640828946067</v>
+        <v>1.483081721142469</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.843092332736603</v>
+        <v>5.063590156116049</v>
       </c>
       <c r="C17">
-        <v>0.3207163678340521</v>
+        <v>0.7663884091076909</v>
       </c>
       <c r="D17">
-        <v>0.03256661488063628</v>
+        <v>0.07236535958245582</v>
       </c>
       <c r="E17">
-        <v>0.08278383987984128</v>
+        <v>0.02922478245618443</v>
       </c>
       <c r="F17">
-        <v>0.6518221918253104</v>
+        <v>0.565277787224673</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.5278073509043821</v>
+        <v>0.1712712676600603</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2660293499350104</v>
+        <v>0.4865762070669035</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.156476834326838</v>
+        <v>1.443899819025631</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.804211924772517</v>
+        <v>4.937378287538479</v>
       </c>
       <c r="C18">
-        <v>0.315437587505528</v>
+        <v>0.7502121545419698</v>
       </c>
       <c r="D18">
-        <v>0.03206628248331356</v>
+        <v>0.07085587272518268</v>
       </c>
       <c r="E18">
-        <v>0.08301143743215533</v>
+        <v>0.02930264978999553</v>
       </c>
       <c r="F18">
-        <v>0.6511560611011404</v>
+        <v>0.5545721826870391</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.52999625607303</v>
+        <v>0.1723414430966237</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2629521599109097</v>
+        <v>0.4746007598253641</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.158304732819545</v>
+        <v>1.4220346976592</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.791045001665054</v>
+        <v>4.894676201290054</v>
       </c>
       <c r="C19">
-        <v>0.3136492049095807</v>
+        <v>0.7447377985558035</v>
       </c>
       <c r="D19">
-        <v>0.03189678007411345</v>
+        <v>0.07034499740582589</v>
       </c>
       <c r="E19">
-        <v>0.08308940900076855</v>
+        <v>0.02933102080767824</v>
       </c>
       <c r="F19">
-        <v>0.6509404828864334</v>
+        <v>0.550982037666266</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.5307456524000003</v>
+        <v>0.1727279540672946</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2619120375999984</v>
+        <v>0.4705547941962607</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.158957373690896</v>
+        <v>1.414743865727729</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.850286930839275</v>
+        <v>5.086964353527776</v>
       </c>
       <c r="C20">
-        <v>0.3216928367809544</v>
+        <v>0.7693835757822569</v>
       </c>
       <c r="D20">
-        <v>0.03265916815858816</v>
+        <v>0.07264483615585959</v>
       </c>
       <c r="E20">
-        <v>0.08274214943284264</v>
+        <v>0.02921133243437168</v>
       </c>
       <c r="F20">
-        <v>0.6519502121554979</v>
+        <v>0.5672758070114838</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.5274061643683225</v>
+        <v>0.1710848117627748</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2665997046955084</v>
+        <v>0.488796809609056</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.156154569603331</v>
+        <v>1.448000614119962</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.049134748026518</v>
+        <v>5.735468415822822</v>
       </c>
       <c r="C21">
-        <v>0.3486417834200211</v>
+        <v>0.8524042408235175</v>
       </c>
       <c r="D21">
-        <v>0.03521369001480679</v>
+        <v>0.08038929636984449</v>
       </c>
       <c r="E21">
-        <v>0.08163880523209066</v>
+        <v>0.02895397338771843</v>
       </c>
       <c r="F21">
-        <v>0.6560372756996316</v>
+        <v>0.6245652011807294</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.5167625682729238</v>
+        <v>0.1673257783880864</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2824717613933245</v>
+        <v>0.5507412584504294</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.149090521954264</v>
+        <v>1.567986074774439</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.178934613860577</v>
+        <v>6.161469951061235</v>
       </c>
       <c r="C22">
-        <v>0.3661956155600876</v>
+        <v>0.9068601641141356</v>
       </c>
       <c r="D22">
-        <v>0.03687782855263322</v>
+        <v>0.08546693877799783</v>
       </c>
       <c r="E22">
-        <v>0.08096499492720532</v>
+        <v>0.02890005942521512</v>
       </c>
       <c r="F22">
-        <v>0.6592277865956362</v>
+        <v>0.6640742055302269</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.510237634935816</v>
+        <v>0.1662811727927291</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2929356403277836</v>
+        <v>0.5917714482056198</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.146233889677177</v>
+        <v>1.653085162887862</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.109673261190096</v>
+        <v>5.933883446011635</v>
       </c>
       <c r="C23">
-        <v>0.3568323061826106</v>
+        <v>0.8777754606911401</v>
       </c>
       <c r="D23">
-        <v>0.03599015070216893</v>
+        <v>0.08275520312418649</v>
       </c>
       <c r="E23">
-        <v>0.08132029094269555</v>
+        <v>0.02891795234183014</v>
       </c>
       <c r="F23">
-        <v>0.6574773157259557</v>
+        <v>0.6427869722752888</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.5136805567428553</v>
+        <v>0.1667028673650748</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2873426131604191</v>
+        <v>0.5698189906696882</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.147597064933763</v>
+        <v>1.607019056095879</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.847034357619293</v>
+        <v>5.076396463497076</v>
       </c>
       <c r="C24">
-        <v>0.321251402327789</v>
+        <v>0.7680294325571992</v>
       </c>
       <c r="D24">
-        <v>0.03261732732742217</v>
+        <v>0.07251848281938322</v>
       </c>
       <c r="E24">
-        <v>0.08276098084614603</v>
+        <v>0.02921737615238129</v>
       </c>
       <c r="F24">
-        <v>0.6518921543430238</v>
+        <v>0.5663718755952374</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.5275873876430595</v>
+        <v>0.1711686602854634</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2663418197601857</v>
+        <v>0.4877927290328614</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.156299650556178</v>
+        <v>1.446144593143856</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.563130837478695</v>
+        <v>4.158580188895655</v>
       </c>
       <c r="C25">
-        <v>0.2826305307332575</v>
+        <v>0.6502615604961193</v>
       </c>
       <c r="D25">
-        <v>0.02895717090301275</v>
+        <v>0.0615254261784699</v>
       </c>
       <c r="E25">
-        <v>0.08451779714560992</v>
+        <v>0.02999072291096638</v>
       </c>
       <c r="F25">
-        <v>0.6480861064781536</v>
+        <v>0.491745442256871</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.5444300298351052</v>
+        <v>0.1814238618118793</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2440808119954312</v>
+        <v>0.4012884453732255</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.173201939448944</v>
+        <v>1.297933147908793</v>
       </c>
     </row>
   </sheetData>
